--- a/static/data/tablas_db.xlsx
+++ b/static/data/tablas_db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="motores"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="209">
   <si>
     <t>opt</t>
   </si>
@@ -599,9 +599,6 @@
   </si>
   <si>
     <t>elite-receptor-testero</t>
-  </si>
-  <si>
-    <t>tertero</t>
   </si>
   <si>
     <t>Manual Receptor Testero Elite - ES_GB_FR_IT_DE.pdf</t>
@@ -654,7 +651,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +670,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -738,7 +741,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -1060,7 +1063,7 @@
   </sheetPr>
   <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6684,7 +6687,7 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7048,14 +7051,14 @@
         <v>175</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -7063,7 +7066,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>125</v>
@@ -7079,7 +7082,7 @@
         <v>168</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
@@ -7087,7 +7090,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>125</v>
@@ -7103,7 +7106,7 @@
         <v>168</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
@@ -7111,7 +7114,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>125</v>
@@ -7127,7 +7130,7 @@
         <v>168</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
@@ -7135,7 +7138,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>125</v>
@@ -7151,7 +7154,7 @@
         <v>168</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
@@ -7159,7 +7162,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>125</v>
@@ -7175,7 +7178,7 @@
         <v>168</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
@@ -7183,16 +7186,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="1" t="s">
@@ -12212,7 +12215,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="6">
         <v>60050214</v>
       </c>
@@ -12289,7 +12292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="6">
         <v>60050215</v>
       </c>
@@ -12366,7 +12369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="6">
         <v>60050216</v>
       </c>
@@ -12443,7 +12446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="6">
         <v>60050217</v>
       </c>
@@ -12520,7 +12523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="6">
         <v>60050225</v>
       </c>
@@ -12597,7 +12600,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="6">
         <v>60050226</v>
       </c>
@@ -12674,7 +12677,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
       <c r="A72" s="6">
         <v>60050227</v>
       </c>
@@ -12751,7 +12754,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
       <c r="A73" s="6">
         <v>60050228</v>
       </c>
@@ -12828,7 +12831,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
       <c r="A74" s="6">
         <v>60050229</v>
       </c>
@@ -12905,7 +12908,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
       <c r="A75" s="6">
         <v>60050230</v>
       </c>
@@ -12982,7 +12985,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
       <c r="A76" s="6">
         <v>60050231</v>
       </c>
@@ -13059,7 +13062,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
       <c r="A77" s="6">
         <v>60050232</v>
       </c>
@@ -13136,7 +13139,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
       <c r="A78" s="6">
         <v>60050233</v>
       </c>
@@ -13213,7 +13216,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
       <c r="A79" s="6">
         <v>60050234</v>
       </c>
@@ -13290,7 +13293,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
       <c r="A80" s="6">
         <v>60050235</v>
       </c>
@@ -13367,7 +13370,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
       <c r="A81" s="6">
         <v>60050236</v>
       </c>
@@ -13444,7 +13447,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
       <c r="A82" s="6">
         <v>60050237</v>
       </c>
@@ -13521,7 +13524,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
       <c r="A83" s="6">
         <v>60050238</v>
       </c>
@@ -13598,7 +13601,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
       <c r="A84" s="6">
         <v>60050239</v>
       </c>
@@ -13675,7 +13678,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
       <c r="A85" s="6">
         <v>60050240</v>
       </c>
@@ -13752,7 +13755,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
       <c r="A86" s="6">
         <v>60050241</v>
       </c>
@@ -13829,7 +13832,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
       <c r="A87" s="6">
         <v>60050242</v>
       </c>
@@ -13906,7 +13909,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
       <c r="A88" s="6">
         <v>60050243</v>
       </c>
@@ -13983,7 +13986,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
       <c r="A89" s="6">
         <v>60050244</v>
       </c>
@@ -14060,7 +14063,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
       <c r="A90" s="6">
         <v>60050245</v>
       </c>
@@ -14137,7 +14140,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
       <c r="A91" s="6">
         <v>60050246</v>
       </c>
@@ -14214,7 +14217,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
       <c r="A92" s="6">
         <v>60050250</v>
       </c>
@@ -14291,7 +14294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
       <c r="A93" s="6">
         <v>60050251</v>
       </c>
@@ -14368,7 +14371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
       <c r="A94" s="6">
         <v>60050258</v>
       </c>
@@ -14445,7 +14448,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
       <c r="A95" s="6">
         <v>60050259</v>
       </c>
@@ -14522,7 +14525,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
       <c r="A96" s="6">
         <v>60050262</v>
       </c>
@@ -14599,7 +14602,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
       <c r="A97" s="6">
         <v>60050269</v>
       </c>
@@ -14676,7 +14679,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
       <c r="A98" s="6">
         <v>60050270</v>
       </c>
